--- a/pdfcoord/output.xlsx
+++ b/pdfcoord/output.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Client Name</t>
+          <t>sparrows.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SB343913</t>
+          <t>S104959</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>S104959</t>
+          <t>SB343913</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SB343931</t>
+          <t>S103242</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>S103242</t>
+          <t>SB343931</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SB343944</t>
+          <t>SP72261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SP72261</t>
+          <t>SB343944</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -687,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SB343963</t>
+          <t>SP39587</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SP39587</t>
+          <t>SB343963</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SB343971</t>
+          <t>S101142</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S101142</t>
+          <t>SB343971</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SB343974</t>
+          <t>S102122</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>S102122</t>
+          <t>SB343974</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SB343979</t>
+          <t>SP42923</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SP42923</t>
+          <t>SB343979</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SB343981</t>
+          <t>SP74141</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SP74141</t>
+          <t>SB343981</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SB343982</t>
+          <t>S101596</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>S101596</t>
+          <t>SB343982</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -935,7 +935,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SB343983</t>
+          <t>SP67421</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SP67421</t>
+          <t>SB343983</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SB343984</t>
+          <t>SP70982</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SP70982</t>
+          <t>SB343984</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SB343985</t>
+          <t>S200472</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>S200472</t>
+          <t>SB343985</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SB343986</t>
+          <t>S200392</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>S200392</t>
+          <t>SB343986</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SB343987</t>
+          <t>S201227</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>S201227</t>
+          <t>SB343987</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SB343990</t>
+          <t>S201423</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>S201423</t>
+          <t>SB343990</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1184,7 +1184,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SB343999</t>
+          <t>SP65223</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SP65223</t>
+          <t>SB343999</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SB344001</t>
+          <t>SP45869</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SP45869</t>
+          <t>SB344001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SB344003</t>
+          <t>SP50587</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SP50587</t>
+          <t>SB344003</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1307,7 +1307,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SB344013</t>
+          <t>S200898</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>S200898</t>
+          <t>SB344013</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SB344021</t>
+          <t>SP16695</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>SP16695</t>
+          <t>SB344021</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SB344023</t>
+          <t>S200316</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>S200316</t>
+          <t>SB344023</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1431,7 +1431,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SB344027</t>
+          <t>S201539</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>S201539</t>
+          <t>SB344027</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SB344028</t>
+          <t>SP73080</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SP73080</t>
+          <t>SB344028</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SB344029</t>
+          <t>S300087</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>S300087</t>
+          <t>SB344029</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1566,7 +1566,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SB344030</t>
+          <t>SP75515</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>SP75515</t>
+          <t>SB344030</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SB344031</t>
+          <t>SP26702</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>SP26702</t>
+          <t>SB344031</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SB344032</t>
+          <t>SP51043</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SP51043</t>
+          <t>SB344032</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SB344033</t>
+          <t>SP22508</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SP22508</t>
+          <t>SB344033</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1760,7 +1760,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SB344035</t>
+          <t>S600010 A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>S600010 A</t>
+          <t>SB344035</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SB344054</t>
+          <t>D971-1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>D971-1 to 6</t>
+          <t>SB344054</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1839,10 +1839,205 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SB344055</t>
+          <t>D971-2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>Master Link : 4.1t : 16B6 : 16mm : 120 x 70mm
+Original E.C. Declaration Cert No: 489487
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SB344054</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>D971-3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Master Link : 4.1t : 16B6 : 16mm : 120 x 70mm
+Original E.C. Declaration Cert No: 489487
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SB344054</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>D971-4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Master Link : 4.1t : 16B6 : 16mm : 120 x 70mm
+Original E.C. Declaration Cert No: 489487
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SB344054</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>D971-5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Master Link : 4.1t : 16B6 : 16mm : 120 x 70mm
+Original E.C. Declaration Cert No: 489487
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SB344054</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>D971-6</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Master Link : 4.1t : 16B6 : 16mm : 120 x 70mm
+Original E.C. Declaration Cert No: 489487
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SB344054</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C269-1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
 Original E.C.Declaration Cert No: 212830-2,
@@ -1850,40 +2045,239 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>C269-1,C269-2,V244-4
-,A269-1,V318-4,D7</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SB344056</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C269-2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
+Original E.C.Declaration Cert No: 212830-2,
+455443, 464280, 483383
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>V244-4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
+Original E.C.Declaration Cert No: 212830-2,
+455443, 464280, 483383
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A269-1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
+Original E.C.Declaration Cert No: 212830-2,
+455443, 464280, 483383
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>V318-4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
+Original E.C.Declaration Cert No: 212830-2,
+455443, 464280, 483383
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Master Link : 6.5t : 20B7 : 20mm : 170 x 90mm
+Original E.C.Declaration Cert No: 212830-2,
+455443, 464280, 483383
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SB344055</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>D972-1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Master Link : 10.7t : Fram 25B6 : 25mm : 190 x
 103mm
@@ -1891,39 +2285,79 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>10.7</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>D972-1 to 2</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SB344058</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SB344056</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>D972-2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Master Link : 10.7t : Fram 25B6 : 25mm : 190 x
+103mm
+Original E.C. Declaration Cert No: 488012, 464280
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SB344056</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>D974-1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
 Single Leg Wire Rope Sling to BS EN 13414-1
@@ -1933,39 +2367,501 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>D974-1 to 12</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SB344066</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>D974-2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>D974-3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>D974-4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>D974-5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>D974-6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>D974-7</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>D974-8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>D974-9</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>D974-10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>D974-11</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>D974-12</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 1t x 500mm EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+9mm Dia IWRC Galv Wire Rope - 500mm EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SB344058</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>218545-25</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
 Single Leg Wire Rope Sling to BS EN 13414-1
@@ -1975,39 +2871,333 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>218545-25 to 32</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SB344074</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>218545-26</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>218545-27</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>218545-28</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>218545-29</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>218545-30</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>218545-31</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>218545-32</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 2t x 2m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+13mm Dia IWRC Galv Wire Rope - 2m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SB344066</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>218545-77</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Wire Rope Sling : Flemish SEEE : 5t x 6m EWL
 Single Leg Wire Rope Sling to BS EN 13414-1
@@ -2017,234 +3207,2583 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>218545-77 to 80</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SB344075</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>SB344074</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>218545-78</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 5t x 6m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+22mm Dia IWRC Galv Wire Rope - 6m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>SB344074</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>218545-79</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 5t x 6m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+22mm Dia IWRC Galv Wire Rope - 6m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>SB344074</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>218545-80</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wire Rope Sling : Flemish SEEE : 5t x 6m EWL
+Single Leg Wire Rope Sling to BS EN 13414-1
+22mm Dia IWRC Galv Wire Rope - 6m EWL
+c/w Flemish Spliced Soft Eyes Each End
+Original E.C. Declaration Cert No: 218545-7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>SB344074</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MGL1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Shackle : Screw Pin Bow : 1t : G4161
 Original E.C. Declaration Cert No: 80264576
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>MGL1 to MGL36</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SB344083</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MGL2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MGL3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MGL4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MGL5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MGL6</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MGL7</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MGL8</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MGL9</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MGL10</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MGL11</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MGL12</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MGL13</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MGL14</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MGL15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MGL16</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MGL17</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MGL18</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MGL19</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MGL20</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MGL21</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MGL22</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MGL23</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MGL24</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MGL25</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MGL26</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MGL27</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MGL28</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MGL29</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MGL30</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MGL31</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MGL32</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MGL33</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MGL34</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MGL35</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MGL36</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Shackle : Screw Pin Bow : 1t : G4161
+Original E.C. Declaration Cert No: 80264576
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SB344075</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>Eyebolt : Collar : M8 : 200kg : BS4278
 Original E.C.Declaration Cert No: 71435
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>A1 to A6</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SB344088</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M8 : 200kg : BS4278
+Original E.C.Declaration Cert No: 71435
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M8 : 200kg : BS4278
+Original E.C.Declaration Cert No: 71435
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M8 : 200kg : BS4278
+Original E.C.Declaration Cert No: 71435
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M8 : 200kg : BS4278
+Original E.C.Declaration Cert No: 71435
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M8 : 200kg : BS4278
+Original E.C.Declaration Cert No: 71435
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>SB344083</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>D981-1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>Eyebolt : Collar : M20 : 1.6t : BS4278
 Original E.C. Declaration Cert No: 490804
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>D981-1 to 10</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SB344095</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>D981-2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>D981-3</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>D981-4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>D981-5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>D981-6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>D981-7</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>D981-8</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>D981-9</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>D981-10</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : M20 : 1.6t : BS4278
+Original E.C. Declaration Cert No: 490804
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>SB344088</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>D985-1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
 Original E.C. Declaration Cert No: 326782
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1.4</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>D985-1 to 6</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SB344098</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>D985-2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
+Original E.C. Declaration Cert No: 326782
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>D985-3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
+Original E.C. Declaration Cert No: 326782
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>D985-4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
+Original E.C. Declaration Cert No: 326782
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>D985-5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
+Original E.C. Declaration Cert No: 326782
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>D985-6</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Eyebolt : Collar : 3/4" UNC : 1.4t : BS4278
+Original E.C. Declaration Cert No: 326782
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>SB344095</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>Swivel Hoist Ring : M8 : Green Pin : 0.4t
 Original E.C. Declaration Cert No: 80265048
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>J1 to J4</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SB344105</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>SB344098</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Swivel Hoist Ring : M8 : Green Pin : 0.4t
+Original E.C. Declaration Cert No: 80265048
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>SB344098</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>J3</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Swivel Hoist Ring : M8 : Green Pin : 0.4t
+Original E.C. Declaration Cert No: 80265048
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>SB344098</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Swivel Hoist Ring : M8 : Green Pin : 0.4t
+Original E.C. Declaration Cert No: 80265048
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>SB344098</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>218545-81</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>Crane Pennant : Single Leg : 8t x 3m : M/Link &amp;
 BKL16-10 Swivel Hook : Flemish
@@ -2257,44 +5796,90 @@
 Hard Eye into BKL16-10 Swivel Safety Hook other
 end
 c/w Hi-Viz Pennant Cover between the ferrules
-c/w Flemish Splice with Steel Sleeves
-Original E.C. Declaration Cert No: 218545-30
-Colour Code: Green</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+c/w Flemish Splice with Steel Sleeves</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>218545-81 to 82</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SB344108</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>SB344105</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>218545-82</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Crane Pennant : Single Leg : 8t x 3m : M/Link &amp;
+BKL16-10 Swivel Hook : Flemish
+Single Leg Wire Rope Crane Pennant to BS EN
+13414-1
+26mm Dia IWRC Galv 1960 Grade Wire Rope - 3m
+EWL
+c/w Hard Eye into HA25ML OS+ Master Link one
+end,
+Hard Eye into BKL16-10 Swivel Safety Hook other
+end
+c/w Hi-Viz Pennant Cover between the ferrules
+c/w Flemish Splice with Steel Sleeves</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>SB344105</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>218545-94</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>Crane Pennant : Single Leg : 20t x 30ft : M/Link &amp;
 Eye Type Hook : Flemish
@@ -2309,101 +5894,851 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>218545-94</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SB344109</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>SB344108</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>21310984/011</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>Manyard : Miller 1013491 : 2m : Twin Tail c/w Snap Hooks
 Original E.C. Declaration Cert No:428808 L1
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>21310984/011,213109
-84/017,21310984/019,
-21310984/020</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SB344110</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>SB344109</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>21310984/017</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Manyard : Miller 1013491 : 2m : Twin Tail c/w Snap Hooks
+Original E.C. Declaration Cert No:428808 L1
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>SB344109</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>21310984/019</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Manyard : Miller 1013491 : 2m : Twin Tail c/w Snap Hooks
+Original E.C. Declaration Cert No:428808 L1
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>SB344109</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>21310984/020</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Manyard : Miller 1013491 : 2m : Twin Tail c/w Snap Hooks
+Original E.C. Declaration Cert No:428808 L1
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>SB344109</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>Karabiner : Sala KJ5107 : Screw Gate
 Original E.C. Declaration Cert No: 428808 L2
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Batch No: 2202 (x24)</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SB344111</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-4</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-6</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-7</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-8</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-9</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-10</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-11</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-12</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-13</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-14</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-15</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-16</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-17</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-18</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-19</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-20</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-21</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-22</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-23</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Batch No: 2202-24</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5107 : Screw Gate
+Original E.C. Declaration Cert No: 428808 L2
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>SB344110</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>E004035011F81092</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
         <is>
           <t>Lanyard : Twin Tail : Sala 1246557 2m : c/w Scaffold
 Hooks
@@ -2411,177 +6746,796 @@
 Colour Code: Green</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>E004035011F81092,E
-004035013298C1D,E0
-04035013959766,E00
-4035013B8F6F0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SB344113</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>SB344111</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>E004035013298C1D</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Lanyard : Twin Tail : Sala 1246557 2m : c/w Scaffold
+Hooks
+Original E.C. Declaration Cert No: 428808 L3
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>SB344111</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>E004035013959766</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Lanyard : Twin Tail : Sala 1246557 2m : c/w Scaffold
+Hooks
+Original E.C. Declaration Cert No: 428808 L3
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>SB344111</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>E004035013B8F6F0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lanyard : Twin Tail : Sala 1246557 2m : c/w Scaffold
+Hooks
+Original E.C. Declaration Cert No: 428808 L3
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>SB344111</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>E0040350172AD060</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>Karabiner : Sala KJ5108 : Scaffold Hook
 Original E.C.Declaration Cert No: Sala Type Approval
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Batch No: 2003
-x8,Batch No: 09/14 x8</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SB344114</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>SB344113</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>E00403501827A8C2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Karabiner : Sala KJ5108 : Scaffold Hook
+Original E.C.Declaration Cert No: Sala Type Approval
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>SB344113</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>E00403501733CCAC</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>Harness : Safety : Full Body 1112900 : Universal
 Original E.C. Declaration Cert No: 428808 L4
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>E0040350172AD060,E
-00403501827A8C2,E0
-0403501733CCAC</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>SB344114</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>E00403501BF9BEA7</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Full Body 1112900 : Universal
+Original E.C. Declaration Cert No: 428808 L4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>SB344114</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>E00403501BF96991</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Full Body 1112900 : Universal
+Original E.C. Declaration Cert No: 428808 L4
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>SB344114</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>E00403501BFA1EAF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112727 : Exofit Comfort XE200 :
+Original E.C. Declaration Cert No: 428808 L5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>SB344115</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Harness : Safety : Sala 1112727 : Exofit Comfort XE200 : S
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>E0040350172A1E9D</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112727 : Exofit Comfort XE200 :
 Original E.C. Declaration Cert No: 428808 L5
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>ize</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>E00403501BF9BEA7,
-E00403501BF96991,E
-00403501BFA1EAF</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>SB344115</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>E0040350171EA769</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112727 : Exofit Comfort XE200 :
+Original E.C. Declaration Cert No: 428808 L5
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>SB344115</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>E00403501C5317A5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112728 : Exofit Comfort XE200 :
+Original E.C. Declaration Cert No: 428808 L6
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>SB344116</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Harness : Safety : Sala 1112728 : Exofit Comfort XE200 : S
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>100823477</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112728 : Exofit Comfort XE200 :
 Original E.C. Declaration Cert No: 428808 L6
-Colour Code: Green
-safe to operate</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>ize</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>E0040350172A1E9D,E
-0040350171EA769,E0
-0403501C5317A5</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>First Issued for U</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>SB344116</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>100823473</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Sala 1112728 : Exofit Comfort XE200 :
+Original E.C. Declaration Cert No: 428808 L6
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SB344116</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>100823470</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Spanset : 2-X
+Original E.C. Declaration Cert No: 428808 L7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>SB344117</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>23-935395</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Spanset : 2-X
+Original E.C. Declaration Cert No: 428808 L7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>SB344117</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>23-935451</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Harness : Safety : Spanset : 2-X
+Original E.C. Declaration Cert No: 428808 L7
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>SB344117</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>23-935406</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>23-935461</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>23-935480</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>23-935484</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>23-935391</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Lanyard : Extension Strop : RGL4 450mm : c/w Delta Link
+Original E.C. Declaration Cert No: Ridgegear Type Approv
+Colour Code: Green</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>SB344118</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>First Issued for U</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
         <is>
           <t>01/04/2024</t>
         </is>
@@ -2598,7 +7552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2624,7 +7578,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Error processing SWL at Page 45: SWL value is None</t>
+          <t>Error processing SWL at Page 135: SWL value is None</t>
         </is>
       </c>
     </row>
@@ -2634,7 +7588,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Error processing SWL at Page 46: SWL value is None</t>
+          <t>Error processing SWL at Page 136: SWL value is None</t>
         </is>
       </c>
     </row>
@@ -2644,7 +7598,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Error processing SWL at Page 47: No SWL value match found in 'N/A'</t>
+          <t>Error processing SWL at Page 137: SWL value is None</t>
         </is>
       </c>
     </row>
@@ -2654,7 +7608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Error processing SWL at Page 48: SWL value is None</t>
+          <t>Error processing SWL at Page 138: SWL value is None</t>
         </is>
       </c>
     </row>
@@ -2664,7 +7618,427 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Error processing SWL at Page 49: SWL value is None</t>
+          <t>Error processing SWL at Page 139: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 140: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 141: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 142: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 143: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 144: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 145: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 146: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 147: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 148: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 149: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 150: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 151: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 152: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 153: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 154: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 155: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 156: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 157: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 158: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 159: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 160: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 161: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 162: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 163: No SWL value match found in 'N/A'</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 164: No SWL value match found in 'N/A'</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 165: No SWL value match found in 'N/A'</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 166: No SWL value match found in 'N/A'</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 167: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 168: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 169: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 170: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 171: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 178: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 179: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 180: SWL value is None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 181: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 182: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 183: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 184: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 185: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 186: No SWL value match found in 'e end'</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Error processing SWL at Page 187: No SWL value match found in 'e end'</t>
         </is>
       </c>
     </row>
